--- a/scratch_files/perspective_calculations.xlsx
+++ b/scratch_files/perspective_calculations.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bettybrown/Documents/Runestone/learnwebgl2/scratch_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D311F9ED-5A65-DF46-ADF0-FDE87E6BE90E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30160" windowHeight="15100" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30160" windowHeight="15100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Errors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="constant1" localSheetId="1">Errors!$D$1</definedName>
     <definedName name="constant1">Sheet1!$D$1</definedName>
+    <definedName name="constant2" localSheetId="1">Errors!$D$2</definedName>
     <definedName name="constant2">Sheet1!$D$2</definedName>
+    <definedName name="dfgfd" localSheetId="1">Errors!$C$2</definedName>
     <definedName name="dfgfd">Sheet1!$C$2</definedName>
+    <definedName name="far" localSheetId="1">Errors!$B$2</definedName>
     <definedName name="far">Sheet1!$B$2</definedName>
+    <definedName name="fred" localSheetId="1">Errors!$C$1</definedName>
     <definedName name="fred">Sheet1!$C$1</definedName>
+    <definedName name="near" localSheetId="1">Errors!$B$1</definedName>
     <definedName name="near">Sheet1!$B$1</definedName>
+    <definedName name="sam" localSheetId="1">Errors!$C$2</definedName>
     <definedName name="sam">Sheet1!$C$2</definedName>
+    <definedName name="sdfd" localSheetId="1">Errors!$C$1</definedName>
     <definedName name="sdfd">Sheet1!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -37,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>near</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
@@ -185,12 +195,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -220,7 +233,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -245,115 +257,115 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>-4.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.0</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-19.0</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-20.0</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-21.0</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-22.0</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.0</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-24.0</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-25.0</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-26.0</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-27.0</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-28.0</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-29.0</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-30.0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-31.0</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-32.0</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-33.0</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-34.0</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-35.0</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-36.0</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-37.0</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-38.0</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-39.0</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-40.0</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,120 +377,125 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>-1.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.565217</c:v>
+                  <c:v>-0.56521699999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-0.275362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.068323</c:v>
+                  <c:v>-6.8322999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.086957</c:v>
+                  <c:v>8.6957000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.207729</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.304348</c:v>
+                  <c:v>0.30434800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.383399</c:v>
+                  <c:v>0.38339899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.449275</c:v>
+                  <c:v>0.44927499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.505017</c:v>
+                  <c:v>0.50501700000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.552795</c:v>
+                  <c:v>0.55279500000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.594203</c:v>
+                  <c:v>0.59420300000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.630435</c:v>
+                  <c:v>0.63043499999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.662404</c:v>
+                  <c:v>0.66240399999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.690821</c:v>
+                  <c:v>0.69082100000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.716247</c:v>
+                  <c:v>0.71624699999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.73913</c:v>
+                  <c:v>0.73912999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.759834</c:v>
+                  <c:v>0.75983400000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.778656</c:v>
+                  <c:v>0.77865600000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.795841</c:v>
+                  <c:v>0.79584100000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.811594</c:v>
+                  <c:v>0.81159400000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.826087</c:v>
+                  <c:v>0.82608700000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.839465</c:v>
+                  <c:v>0.83946500000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.851852</c:v>
+                  <c:v>0.85185200000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.863354</c:v>
+                  <c:v>0.86335399999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.874063</c:v>
+                  <c:v>0.87406300000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.884058</c:v>
+                  <c:v>0.88405800000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.893408</c:v>
+                  <c:v>0.89340799999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.902174</c:v>
+                  <c:v>0.90217400000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.910408</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.918159</c:v>
+                  <c:v>0.91815899999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.925466</c:v>
+                  <c:v>0.92546600000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.932367</c:v>
+                  <c:v>0.93236699999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.938895</c:v>
+                  <c:v>0.93889500000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.94508</c:v>
+                  <c:v>0.94508000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.950948</c:v>
+                  <c:v>0.95094800000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.956522</c:v>
+                  <c:v>0.95652199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDEC-0243-AEC2-95DCEB1696CE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -514,7 +531,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="-115571792"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -526,8 +543,8 @@
         <c:axId val="-115571792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
-          <c:min val="-1.0"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -561,8 +578,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.295245646173598"/>
-          <c:y val="0.0627166585142808"/>
-          <c:w val="0.233867150852213"/>
+          <c:y val="6.2716658514280793E-2"/>
+          <c:w val="0.23386715085221299"/>
           <c:h val="0.139544033516939"/>
         </c:manualLayout>
       </c:layout>
@@ -574,14 +591,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -610,145 +627,145 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>-4.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.0</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-19.0</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-20.0</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-21.0</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-22.0</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.0</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-24.0</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-25.0</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-26.0</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-27.0</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-28.0</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-29.0</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-30.0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-31.0</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-32.0</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-33.0</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-34.0</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-35.0</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-36.0</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-37.0</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-38.0</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-39.0</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-40.0</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-41.0</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-42.0</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-43.0</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-44.0</c:v>
+                  <c:v>-44</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-45.0</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-46.0</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-47.0</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-48.0</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-49.0</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-50.0</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,150 +777,155 @@
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>9.20000013948652E-8</c:v>
+                  <c:v>9.2000001394865194E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.60999947684814E-6</c:v>
+                  <c:v>-1.6099994768481452E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.51800037873073E-6</c:v>
+                  <c:v>1.5180003787307328E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.47399570383078E-6</c:v>
+                  <c:v>-5.4739957038307807E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.12240157132959E-5</c:v>
+                  <c:v>1.1224015713295898E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.38200320221449E-6</c:v>
+                  <c:v>5.3820032022144915E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.53000063210607E-6</c:v>
+                  <c:v>2.5300006321060664E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.16380122765491E-5</c:v>
+                  <c:v>1.1638012276549148E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.13160106369747E-5</c:v>
+                  <c:v>1.1316010636974738E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.57140507837761E-5</c:v>
+                  <c:v>2.5714050783776088E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.28620372642041E-5</c:v>
+                  <c:v>2.2862037264204105E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.96700585966647E-5</c:v>
+                  <c:v>2.9670058596664717E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.71680862301105E-5</c:v>
+                  <c:v>3.7168086230110475E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.56399985229427E-6</c:v>
+                  <c:v>-1.5639998522942733E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.93940479103583E-5</c:v>
+                  <c:v>2.9394047910358267E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.75820742242183E-5</c:v>
+                  <c:v>3.7582074224218331E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.79399838522443E-5</c:v>
+                  <c:v>-1.7939983852244268E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.64219871088278E-5</c:v>
+                  <c:v>-1.6421987108827807E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-4.55399904453202E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.07841119770092E-5</c:v>
+                  <c:v>5.0784111977009161E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.04879953859438E-5</c:v>
+                  <c:v>-1.0487995385943805E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.82002443742158E-5</c:v>
+                  <c:v>7.8200244374215799E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.02983133350688E-5</c:v>
+                  <c:v>9.0298313335068769E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.61460096066435E-5</c:v>
+                  <c:v>1.6146009606643474E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.44000014204948E-7</c:v>
+                  <c:v>6.4400001420494846E-7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000104052373028907</c:v>
+                  <c:v>1.0405237302890669E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.59000189987091E-6</c:v>
+                  <c:v>7.5900018998709129E-6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.98199675805722E-6</c:v>
+                  <c:v>-9.9819967580572211E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.54560074179244E-5</c:v>
+                  <c:v>1.5456007417924411E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.85759283535003E-5</c:v>
+                  <c:v>-4.8575928353500331E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.000196283132552821</c:v>
+                  <c:v>1.9628313255282137E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.89800239059446E-5</c:v>
+                  <c:v>2.8980023905944563E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.000133308493239781</c:v>
+                  <c:v>1.33308493239781E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.8716263075005E-5</c:v>
+                  <c:v>9.8716263075004917E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-7.86599834867729E-6</c:v>
+                  <c:v>-7.8659983486772944E-6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.71421523566573E-5</c:v>
+                  <c:v>7.7142152356657334E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.61200785682558E-5</c:v>
+                  <c:v>5.6120078568255849E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.50880055045377E-5</c:v>
+                  <c:v>1.5088005504537705E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.85861117943887E-5</c:v>
+                  <c:v>6.8586111794388671E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.000312526270498381</c:v>
+                  <c:v>3.1252627049838111E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.000324854397426577</c:v>
+                  <c:v>3.2485439742657718E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-6.62399022957061E-5</c:v>
+                  <c:v>-6.6239902295706088E-5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.000223239082707494</c:v>
+                  <c:v>2.2323908270749371E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.000222687054417747</c:v>
+                  <c:v>2.2268705441774728E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.000111504258690331</c:v>
+                  <c:v>1.1150425869033143E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.000356134587313761</c:v>
+                  <c:v>3.5613458731376113E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.26500031569776E-5</c:v>
+                  <c:v>1.2650003156977618E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18AB-6945-A8CE-D0451F57C944}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -915,145 +937,145 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>-4.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.0</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-19.0</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-20.0</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-21.0</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-22.0</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.0</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-24.0</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-25.0</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-26.0</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-27.0</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-28.0</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-29.0</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-30.0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-31.0</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-32.0</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-33.0</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-34.0</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-35.0</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-36.0</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-37.0</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-38.0</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-39.0</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-40.0</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-41.0</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-42.0</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-43.0</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-44.0</c:v>
+                  <c:v>-44</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-45.0</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-46.0</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-47.0</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-48.0</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-49.0</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-50.0</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,16 +1087,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>2.56E-6</c:v>
+                  <c:v>2.5600000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4E-6</c:v>
+                  <c:v>3.9999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.76E-6</c:v>
+                  <c:v>5.7599999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.84E-6</c:v>
+                  <c:v>7.8399999999999995E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.024E-5</c:v>
@@ -1083,132 +1105,137 @@
                   <c:v>1.296E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6E-5</c:v>
+                  <c:v>1.5999999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.936E-5</c:v>
+                  <c:v>1.9360000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.304E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.704E-5</c:v>
+                  <c:v>2.7040000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.136E-5</c:v>
+                  <c:v>3.1359999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6E-5</c:v>
+                  <c:v>3.6000000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.096E-5</c:v>
+                  <c:v>4.0960000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.624E-5</c:v>
+                  <c:v>4.6239999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.184E-5</c:v>
+                  <c:v>5.1839999999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.776E-5</c:v>
+                  <c:v>5.7760000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.4E-5</c:v>
+                  <c:v>6.3999999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.056E-5</c:v>
+                  <c:v>7.0560000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.744E-5</c:v>
+                  <c:v>7.7440000000000004E-5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.464E-5</c:v>
+                  <c:v>8.4640000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.216E-5</c:v>
+                  <c:v>9.2159999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0001</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.00010816</c:v>
+                  <c:v>1.0816000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.00011664</c:v>
+                  <c:v>1.1664000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.00012544</c:v>
+                  <c:v>1.2543999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.00013456</c:v>
+                  <c:v>1.3456000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.000144</c:v>
+                  <c:v>1.44E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.00015376</c:v>
+                  <c:v>1.5375999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.00016384</c:v>
+                  <c:v>1.6384E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.00017424</c:v>
+                  <c:v>1.7424000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00018496</c:v>
+                  <c:v>1.8495999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.000196</c:v>
+                  <c:v>1.9599999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.00020736</c:v>
+                  <c:v>2.0735999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00021904</c:v>
+                  <c:v>2.1904000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.00023104</c:v>
+                  <c:v>2.3104000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.00024336</c:v>
+                  <c:v>2.4336E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.000256</c:v>
+                  <c:v>2.5599999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.00026896</c:v>
+                  <c:v>2.6896E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.00028224</c:v>
+                  <c:v>2.8224000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.00029584</c:v>
+                  <c:v>2.9584000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.00030976</c:v>
+                  <c:v>3.0976000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.000324</c:v>
+                  <c:v>3.2400000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.00033856</c:v>
+                  <c:v>3.3856000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.00035344</c:v>
+                  <c:v>3.5344E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.00036864</c:v>
+                  <c:v>3.6863999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.00038416</c:v>
+                  <c:v>3.8415999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.0004</c:v>
+                  <c:v>4.0000000000000002E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18AB-6945-A8CE-D0451F57C944}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1255,7 +1282,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1264,14 +1290,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1300,7 +1326,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1322,145 +1347,145 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>-4.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-6.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-10.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-11.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-12.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-13.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-14.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-16.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-17.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-18.0</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-19.0</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-20.0</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-21.0</c:v>
+                  <c:v>-21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-22.0</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-23.0</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-24.0</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-25.0</c:v>
+                  <c:v>-25</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-26.0</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-27.0</c:v>
+                  <c:v>-27</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-28.0</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-29.0</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-30.0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-31.0</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-32.0</c:v>
+                  <c:v>-32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-33.0</c:v>
+                  <c:v>-33</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-34.0</c:v>
+                  <c:v>-34</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-35.0</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-36.0</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-37.0</c:v>
+                  <c:v>-37</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-38.0</c:v>
+                  <c:v>-38</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-39.0</c:v>
+                  <c:v>-39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-40.0</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-41.0</c:v>
+                  <c:v>-41</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-42.0</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-43.0</c:v>
+                  <c:v>-43</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-44.0</c:v>
+                  <c:v>-44</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-45.0</c:v>
+                  <c:v>-45</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-46.0</c:v>
+                  <c:v>-46</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-47.0</c:v>
+                  <c:v>-47</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-48.0</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-49.0</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-50.0</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,150 +1497,155 @@
                 <c:formatCode>0.000000000</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>9.20000013948652E-8</c:v>
+                  <c:v>9.2000001394865194E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.60999947684814E-6</c:v>
+                  <c:v>-1.6099994768481452E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.51800037873073E-6</c:v>
+                  <c:v>1.5180003787307328E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.47399570383078E-6</c:v>
+                  <c:v>-5.4739957038307807E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.12240157132959E-5</c:v>
+                  <c:v>1.1224015713295898E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.38200320221449E-6</c:v>
+                  <c:v>5.3820032022144915E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.53000063210607E-6</c:v>
+                  <c:v>2.5300006321060664E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.16380122765491E-5</c:v>
+                  <c:v>1.1638012276549148E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.13160106369747E-5</c:v>
+                  <c:v>1.1316010636974738E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.57140507837761E-5</c:v>
+                  <c:v>2.5714050783776088E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.28620372642041E-5</c:v>
+                  <c:v>2.2862037264204105E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.96700585966647E-5</c:v>
+                  <c:v>2.9670058596664717E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.71680862301105E-5</c:v>
+                  <c:v>3.7168086230110475E-5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.56399985229427E-6</c:v>
+                  <c:v>-1.5639998522942733E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.93940479103583E-5</c:v>
+                  <c:v>2.9394047910358267E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.75820742242183E-5</c:v>
+                  <c:v>3.7582074224218331E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1.79399838522443E-5</c:v>
+                  <c:v>-1.7939983852244268E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.64219871088278E-5</c:v>
+                  <c:v>-1.6421987108827807E-5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-4.55399904453202E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.07841119770092E-5</c:v>
+                  <c:v>5.0784111977009161E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.04879953859438E-5</c:v>
+                  <c:v>-1.0487995385943805E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.82002443742158E-5</c:v>
+                  <c:v>7.8200244374215799E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.02983133350688E-5</c:v>
+                  <c:v>9.0298313335068769E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.61460096066435E-5</c:v>
+                  <c:v>1.6146009606643474E-5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.44000014204948E-7</c:v>
+                  <c:v>6.4400001420494846E-7</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.000104052373028907</c:v>
+                  <c:v>1.0405237302890669E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.59000189987091E-6</c:v>
+                  <c:v>7.5900018998709129E-6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-9.98199675805722E-6</c:v>
+                  <c:v>-9.9819967580572211E-6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.54560074179244E-5</c:v>
+                  <c:v>1.5456007417924411E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.85759283535003E-5</c:v>
+                  <c:v>-4.8575928353500331E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.000196283132552821</c:v>
+                  <c:v>1.9628313255282137E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.89800239059446E-5</c:v>
+                  <c:v>2.8980023905944563E-5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.000133308493239781</c:v>
+                  <c:v>1.33308493239781E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.8716263075005E-5</c:v>
+                  <c:v>9.8716263075004917E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-7.86599834867729E-6</c:v>
+                  <c:v>-7.8659983486772944E-6</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.71421523566573E-5</c:v>
+                  <c:v>7.7142152356657334E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.61200785682558E-5</c:v>
+                  <c:v>5.6120078568255849E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.50880055045377E-5</c:v>
+                  <c:v>1.5088005504537705E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.85861117943887E-5</c:v>
+                  <c:v>6.8586111794388671E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.000312526270498381</c:v>
+                  <c:v>3.1252627049838111E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.000324854397426577</c:v>
+                  <c:v>3.2485439742657718E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-6.62399022957061E-5</c:v>
+                  <c:v>-6.6239902295706088E-5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.000223239082707494</c:v>
+                  <c:v>2.2323908270749371E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.000222687054417747</c:v>
+                  <c:v>2.2268705441774728E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.000111504258690331</c:v>
+                  <c:v>1.1150425869033143E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.000356134587313761</c:v>
+                  <c:v>3.5613458731376113E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.26500031569776E-5</c:v>
+                  <c:v>1.2650003156977618E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8763-6F40-A836-5E648DF326D3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1632,8 +1662,8 @@
         <c:axId val="-115524320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.0"/>
-          <c:min val="-52.0"/>
+          <c:max val="0"/>
+          <c:min val="-52"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1664,7 +1694,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1673,10 +1702,2473 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>  </a:t>
+            </a:r>
+            <a:endParaRPr lang="mr-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>z' = c1/-z + c2</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Errors!$A$8:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Errors!$B$8:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.53061199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63265300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70067999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74927100000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78571400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81405899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83673500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85528800000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87074799999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88383</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.89504399999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90476199999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91326499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92076800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92743799999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93340500000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93877600000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.943635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94805200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95208499999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95578200000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95918400000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96232300000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96523099999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96792999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97044299999999994</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97278900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97498399999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.97704100000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97897299999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.980792</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.98250700000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98412699999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98565899999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98711099999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.98848800000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.98979600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D30F-FC4C-82B7-DE11A4C6477E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-188673584"/>
+        <c:axId val="-115571792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-188673584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-115571792"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="4"/>
+        <c:tickMarkSkip val="4"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-115571792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-188673584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.295245646173598"/>
+          <c:y val="6.2716658514280793E-2"/>
+          <c:w val="0.23386715085221299"/>
+          <c:h val="0.139544033516939"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Errors!$A$8:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Errors!$F$8:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>5.8800009394843755E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5435047847844885E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8200014136674554E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8469116153395646E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1760001878968751E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4243327628711313E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9870638964862906E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4737182527399E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7640002827334911E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0828991118927433E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6938232306791292E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6305143543534655E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2779302234378065E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4990003986147258E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0848665525742263E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4485615864122678E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5974127792972581E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7353364889725071E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.9474365054798E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9640482361870113E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5280005654669822E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9967659741126909E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0958569025685279E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.3902413209149245E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1387646461358258E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0214858181997215E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3361949842312129E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.691213999239551E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5736193433328935E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8995828078091108E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9980007972294516E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2255608149541786E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5203217611962145E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0317644498961727E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1973037390120567E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6437853539060825E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1948255585945162E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0270009640817079E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4706729779450143E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.6485461440967129E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.78948730109596E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4619625137797243E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6296997565561355E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7572547213262624E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1360429014928286E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5438916634664679E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9935319482253817E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9E91-9C4F-B9F6-E496FD94CADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Errors!$A$8:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Errors!$G$8:$G$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>2.5600000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9999999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7599999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8399999999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.024E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.296E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9360000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.304E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7040000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1359999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0960000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6239999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1839999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.7760000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0560000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.7440000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4640000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2159999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0816000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1664000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2543999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3456000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.44E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5375999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6384E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7424000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8495999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0735999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.1904000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3104000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4336E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.6896E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.8224000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.9584000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.0976000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.2400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3856000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5344E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6863999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8415999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9E91-9C4F-B9F6-E496FD94CADA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-115547088"/>
+        <c:axId val="-115544336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-115547088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-115544336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-115544336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000000000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-115547088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Calculation Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Error</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Errors!$A$8:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-43</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-47</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Errors!$F$8:$F$54</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000000</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>5.8800009394843755E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5435047847844885E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8200014136674554E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8469116153395646E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1760001878968751E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4243327628711313E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9870638964862906E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4737182527399E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7640002827334911E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0828991118927433E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6938232306791292E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6305143543534655E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2779302234378065E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4990003986147258E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0848665525742263E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4485615864122678E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5974127792972581E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7353364889725071E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.9474365054798E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9640482361870113E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5280005654669822E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9967659741126909E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0958569025685279E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.3902413209149245E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1387646461358258E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.0214858181997215E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3361949842312129E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.691213999239551E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5736193433328935E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8995828078091108E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.9980007972294516E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.2255608149541786E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.5203217611962145E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0317644498961727E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1973037390120567E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.6437853539060825E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1948255585945162E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.0270009640817079E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4706729779450143E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.6485461440967129E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.78948730109596E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.4619625137797243E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6296997565561355E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.7572547213262624E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1360429014928286E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5438916634664679E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9935319482253817E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36B1-BF4F-A738-80BAC6D2E551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-115524320"/>
+        <c:axId val="-115521568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-115524320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0"/>
+          <c:min val="-52"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-115521568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-115521568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-115524320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Errors!$H$5:$H$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.1408696209969094E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.9354361252842409E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-8.8097296968570049E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7621738539475018E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.8714778255742885E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4058896886411958E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.738408698021999E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.2246900792171118E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6552418681546897E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6181435100293129E-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6963870981333571E-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.9387540396209602E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.5652621972914744E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8148418019569021E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.325568146803846E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5250716509338531E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.9950935470045579E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0895171007047111E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4937197370556987E-5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0098614605169587E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2660722451398669E-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8381233733322233E-5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.0511577129365151E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-8.1078013000279725E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0787177127369318E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.2095231603481693E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7472030234699787E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2825557220708106E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.3347744019043262E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-3.9587269920815515E-5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2796131692714994E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0517317220148925E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.0361650549460819E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.6480131869656134E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.576395353879434E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.6607876819184639E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-6.8737688046383028E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7760477328797606E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.4096101833492867E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.4462718739075626E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.4088680747524904E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.7640938185035111E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-4.1275709632060398E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.054228762029652E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7222168768427082E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8199314053978242E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.5031063388402117E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.3136686008106153E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4679927637928358E-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.2135238711816783E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8244-9C4A-98C7-0A886BEEEBD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="263946223"/>
+        <c:axId val="266220767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="263946223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266220767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="266220767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="263946223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1696,7 +4188,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1726,7 +4224,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1756,7 +4260,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1766,6 +4276,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5974302-6194-5045-B405-BFD764F0FC6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613A3D40-3DD2-EE43-9A90-C540EB3CE3C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA8677B-BEA7-5646-8D98-BDCFAABE006A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7166EF94-36AA-8F4C-BAD4-09978A630EC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2093,10 +4758,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O28" sqref="O28:P31"/>
     </sheetView>
   </sheetViews>
@@ -3541,25 +6206,25 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I55">
         <f ca="1">RANDBETWEEN(2,13)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I56">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I59" s="2">
         <f ca="1">-(2*I55*I56)/(I55-I56)</f>
-        <v>31.764705882352942</v>
+        <v>22.90909090909091</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I60" s="3">
         <f ca="1">(2*I55*I56)/(I56-I55)</f>
-        <v>31.764705882352942</v>
+        <v>22.90909090909091</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -3583,4 +6248,1783 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6851927-19FC-B448-8F8E-C40A5DCBA296}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="17.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <f>ROUND(2*near*far/(near-far),7)</f>
+        <v>-2.0408162999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>ROUND((far+near)/(far-near),7)</f>
+        <v>1.0408162999999999</v>
+      </c>
+      <c r="H2">
+        <f>-ROUND(constant1/ROUND(ROUND(ROUND(ROUND($D2/(2^32-1),6)-0.5,6)/0.5,6)-constant2,6),6)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" s="9">
+        <f>-(ROUND(0.5*constant1,6)/ROUND(ROUND($C3-0.5,6)-ROUND(0.5*constant2,6),6))</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <f>0.0004 / far^2</f>
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="6">
+        <f>ROUND(ROUND(constant1 - A5*constant2, 6) /-A5,6)</f>
+        <v>-1</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" ref="C5:C7" si="0">ROUND(ROUND(B5*0.5,6) + 0.5,6)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D7" si="1">ROUND(C5*((2^32)-1),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <f>-(constant1/ROUND(ROUND(ROUND($C5/0.5,6)- 1, 6) - constant2,6))</f>
+        <v>-1.0000001470000235</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" ref="F5:F7" si="2">A5-E5</f>
+        <v>1.4700002348710939E-7</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ref="G5:G7" si="3">$G$4*A5^2</f>
+        <v>1.6E-7</v>
+      </c>
+      <c r="H5">
+        <f>constant1/(B5+(1/2^32)-constant2) + A5</f>
+        <v>1.1408696209969094E-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>-2</v>
+      </c>
+      <c r="B6" s="6">
+        <f>ROUND(ROUND(constant1 - A6*constant2, 6) /-A6,6)</f>
+        <v>2.0407999999999999E-2</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.51020399999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2191309494</v>
+      </c>
+      <c r="E6" s="9">
+        <f>-(constant1/ROUND(ROUND(ROUND($C6/0.5,6)- 1, 6) - constant2,6))</f>
+        <v>-2.000000294000047</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="2"/>
+        <v>2.9400004697421878E-7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>6.4000000000000001E-7</v>
+      </c>
+      <c r="H6">
+        <f>constant1/(B6+(1/2^32)-constant2) + A6</f>
+        <v>-2.9354361252842409E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>-3</v>
+      </c>
+      <c r="B7" s="6">
+        <f>ROUND(ROUND(constant1 - A7*constant2, 6) /-A7,6)</f>
+        <v>0.36054399999999998</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.68027199999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2921745992</v>
+      </c>
+      <c r="E7" s="9">
+        <f>-(constant1/ROUND(ROUND(ROUND($C7/0.5,6)- 1, 6) - constant2,6))</f>
+        <v>-3.0000004410000707</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="2"/>
+        <v>4.4100007068337277E-7</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>1.44E-6</v>
+      </c>
+      <c r="H7">
+        <f>constant1/(B7+(1/2^32)-constant2) + A7</f>
+        <v>-8.8097296968570049E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>-4</v>
+      </c>
+      <c r="B8" s="6">
+        <f>ROUND(ROUND(constant1 - A8*constant2, 6) /-A8,6)</f>
+        <v>0.53061199999999997</v>
+      </c>
+      <c r="C8" s="7">
+        <f>ROUND(ROUND(B8*0.5,6) + 0.5,6)</f>
+        <v>0.76530600000000004</v>
+      </c>
+      <c r="D8">
+        <f>ROUND(C8*((2^32)-1),0)</f>
+        <v>3286964241</v>
+      </c>
+      <c r="E8" s="9">
+        <f>-(constant1/ROUND(ROUND(ROUND($C8/0.5,6)- 1, 6) - constant2,6))</f>
+        <v>-4.0000005880000939</v>
+      </c>
+      <c r="F8" s="8">
+        <f>A8-E8</f>
+        <v>5.8800009394843755E-7</v>
+      </c>
+      <c r="G8">
+        <f>$G$4*A8^2</f>
+        <v>2.5600000000000001E-6</v>
+      </c>
+      <c r="H8">
+        <f>constant1/(B8+(1/2^32)-constant2) + A8</f>
+        <v>-1.7621738539475018E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>-5</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" ref="B9:B54" si="4">ROUND(ROUND(constant1 - A9*constant2, 6) /-A9,6)</f>
+        <v>0.63265300000000002</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:C54" si="5">ROUND(ROUND(B9*0.5,6) + 0.5,6)</f>
+        <v>0.81632700000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D54" si="6">ROUND(C9*((2^32)-1),0)</f>
+        <v>3506097767</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" ref="E9:E54" si="7">-(constant1/ROUND(ROUND(ROUND($C9/0.5,6)- 1, 6) - constant2,6))</f>
+        <v>-5.0000154350478478</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" ref="F9:F54" si="8">A9-E9</f>
+        <v>1.5435047847844885E-5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G54" si="9">$G$4*A9^2</f>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="H9">
+        <f>constant1/(B9+(1/2^32)-constant2) + A9</f>
+        <v>-4.8714778255742885E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>-6</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="4"/>
+        <v>0.70067999999999997</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.85033999999999998</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>3652182490</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="7"/>
+        <v>-6.0000008820001414</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="8"/>
+        <v>8.8200014136674554E-7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="9"/>
+        <v>5.7599999999999999E-6</v>
+      </c>
+      <c r="H10">
+        <f>constant1/(B10+(1/2^32)-constant2) + A10</f>
+        <v>-4.4058896886411958E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>-7</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="4"/>
+        <v>0.74927100000000002</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="5"/>
+        <v>0.87463599999999997</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="6"/>
+        <v>3756533015</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="7"/>
+        <v>-7.0000284691161534</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="8"/>
+        <v>2.8469116153395646E-5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="9"/>
+        <v>7.8399999999999995E-6</v>
+      </c>
+      <c r="H11">
+        <f>constant1/(B11+(1/2^32)-constant2) + A11</f>
+        <v>-2.738408698021999E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>-8</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="4"/>
+        <v>0.78571400000000002</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="5"/>
+        <v>0.89285700000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="6"/>
+        <v>3834791614</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="7"/>
+        <v>-8.0000011760001879</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1760001878968751E-6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="9"/>
+        <v>1.024E-5</v>
+      </c>
+      <c r="H12">
+        <f>constant1/(B12+(1/2^32)-constant2) + A12</f>
+        <v>-8.2246900792171118E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>-9</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="4"/>
+        <v>0.81405899999999998</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.90703</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="6"/>
+        <v>3895664186</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="7"/>
+        <v>-9.0000542433276287</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="8"/>
+        <v>5.4243327628711313E-5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="9"/>
+        <v>1.296E-5</v>
+      </c>
+      <c r="H13">
+        <f>constant1/(B13+(1/2^32)-constant2) + A13</f>
+        <v>2.6552418681546897E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>-10</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.83673500000000001</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.91836799999999996</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="6"/>
+        <v>3944360525</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="7"/>
+        <v>-10.000079870638965</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="8"/>
+        <v>7.9870638964862906E-5</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="H14">
+        <f>constant1/(B14+(1/2^32)-constant2) + A14</f>
+        <v>1.6181435100293129E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>-11</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" si="4"/>
+        <v>0.85528800000000005</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.92764400000000002</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="6"/>
+        <v>3984200641</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="7"/>
+        <v>-11.000044737182527</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="8"/>
+        <v>4.4737182527399E-5</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="9"/>
+        <v>1.9360000000000001E-5</v>
+      </c>
+      <c r="H15">
+        <f>constant1/(B15+(1/2^32)-constant2) + A15</f>
+        <v>2.6963870981333571E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>-12</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" si="4"/>
+        <v>0.87074799999999997</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="5"/>
+        <v>0.93537400000000004</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>4017400739</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="7"/>
+        <v>-12.000001764000283</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="8"/>
+        <v>1.7640002827334911E-6</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="9"/>
+        <v>2.304E-5</v>
+      </c>
+      <c r="H16">
+        <f>constant1/(B16+(1/2^32)-constant2) + A16</f>
+        <v>-1.9387540396209602E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>-13</v>
+      </c>
+      <c r="B17" s="6">
+        <f t="shared" si="4"/>
+        <v>0.88383</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="5"/>
+        <v>0.94191499999999995</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="6"/>
+        <v>4045494120</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="7"/>
+        <v>-12.999989171008881</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="8"/>
+        <v>-1.0828991118927433E-5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="9"/>
+        <v>2.7040000000000002E-5</v>
+      </c>
+      <c r="H17">
+        <f>constant1/(B17+(1/2^32)-constant2) + A17</f>
+        <v>-3.5652621972914744E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>-14</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" si="4"/>
+        <v>0.89504399999999995</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="5"/>
+        <v>0.94752199999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>4069576001</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="7"/>
+        <v>-14.000056938232307</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="8"/>
+        <v>5.6938232306791292E-5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="9"/>
+        <v>3.1359999999999998E-5</v>
+      </c>
+      <c r="H18">
+        <f>constant1/(B18+(1/2^32)-constant2) + A18</f>
+        <v>2.8148418019569021E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>-15</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" si="4"/>
+        <v>0.90476199999999996</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="5"/>
+        <v>0.95238100000000003</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="6"/>
+        <v>4090445247</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="7"/>
+        <v>-15.000046305143544</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="8"/>
+        <v>4.6305143543534655E-5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="9"/>
+        <v>3.6000000000000001E-5</v>
+      </c>
+      <c r="H19">
+        <f>constant1/(B19+(1/2^32)-constant2) + A19</f>
+        <v>1.325568146803846E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>-16</v>
+      </c>
+      <c r="B20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.91326499999999999</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="5"/>
+        <v>0.95663299999999996</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>4108707448</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="7"/>
+        <v>-16.000127793022344</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="8"/>
+        <v>1.2779302234378065E-4</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="9"/>
+        <v>4.0960000000000001E-5</v>
+      </c>
+      <c r="H20">
+        <f>constant1/(B20+(1/2^32)-constant2) + A20</f>
+        <v>-3.5250716509338531E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>-17</v>
+      </c>
+      <c r="B21" s="6">
+        <f t="shared" si="4"/>
+        <v>0.92076800000000003</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="5"/>
+        <v>0.96038400000000002</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>4124817871</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="7"/>
+        <v>-17.000002499000399</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
+        <v>2.4990003986147258E-6</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="9"/>
+        <v>4.6239999999999998E-5</v>
+      </c>
+      <c r="H21">
+        <f>constant1/(B21+(1/2^32)-constant2) + A21</f>
+        <v>-3.9950935470045579E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>-18</v>
+      </c>
+      <c r="B22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.92743799999999998</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="5"/>
+        <v>0.96371899999999999</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="6"/>
+        <v>4139141587</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="7"/>
+        <v>-18.000108486655257</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="8"/>
+        <v>1.0848665525742263E-4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="9"/>
+        <v>5.1839999999999998E-5</v>
+      </c>
+      <c r="H22">
+        <f>constant1/(B22+(1/2^32)-constant2) + A22</f>
+        <v>6.0895171007047111E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>-19</v>
+      </c>
+      <c r="B23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.93340500000000004</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="5"/>
+        <v>0.96670299999999998</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>4151957769</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="7"/>
+        <v>-19.000244856158641</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="8"/>
+        <v>2.4485615864122678E-4</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>5.7760000000000003E-5</v>
+      </c>
+      <c r="H23">
+        <f>constant1/(B23+(1/2^32)-constant2) + A23</f>
+        <v>1.4937197370556987E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>-20</v>
+      </c>
+      <c r="B24" s="6">
+        <f t="shared" si="4"/>
+        <v>0.93877600000000005</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="5"/>
+        <v>0.96938800000000003</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
+        <v>4163489756</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="7"/>
+        <v>-20.00015974127793</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5974127792972581E-4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="H24">
+        <f>constant1/(B24+(1/2^32)-constant2) + A24</f>
+        <v>1.0098614605169587E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>-21</v>
+      </c>
+      <c r="B25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.943635</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="5"/>
+        <v>0.97181799999999996</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>4173926527</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="7"/>
+        <v>-21.000373533648897</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="8"/>
+        <v>3.7353364889725071E-4</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>7.0560000000000002E-5</v>
+      </c>
+      <c r="H25">
+        <f>constant1/(B25+(1/2^32)-constant2) + A25</f>
+        <v>9.2660722451398669E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>-22</v>
+      </c>
+      <c r="B26" s="6">
+        <f t="shared" si="4"/>
+        <v>0.94805200000000001</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="5"/>
+        <v>0.97402599999999995</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>4183409814</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="7"/>
+        <v>-22.000089474365055</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="8"/>
+        <v>8.9474365054798E-5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>7.7440000000000004E-5</v>
+      </c>
+      <c r="H26">
+        <f>constant1/(B26+(1/2^32)-constant2) + A26</f>
+        <v>1.8381233733322233E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>-23</v>
+      </c>
+      <c r="B27" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95208499999999996</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="5"/>
+        <v>0.97604299999999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>4192072764</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="7"/>
+        <v>-23.000296404823619</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="8"/>
+        <v>2.9640482361870113E-4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>8.4640000000000003E-5</v>
+      </c>
+      <c r="H27">
+        <f>constant1/(B27+(1/2^32)-constant2) + A27</f>
+        <v>-4.0511577129365151E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>-24</v>
+      </c>
+      <c r="B28" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95578200000000002</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="5"/>
+        <v>0.97789099999999995</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="6"/>
+        <v>4200009863</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="7"/>
+        <v>-24.000003528000565</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="8"/>
+        <v>3.5280005654669822E-6</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>9.2159999999999999E-5</v>
+      </c>
+      <c r="H28">
+        <f>constant1/(B28+(1/2^32)-constant2) + A28</f>
+        <v>-8.1078013000279725E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>-25</v>
+      </c>
+      <c r="B29" s="6">
+        <f t="shared" si="4"/>
+        <v>0.95918400000000004</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="5"/>
+        <v>0.97959200000000002</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="6"/>
+        <v>4207315602</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="7"/>
+        <v>-25.000199676597411</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="8"/>
+        <v>1.9967659741126909E-4</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>1E-4</v>
+      </c>
+      <c r="H29">
+        <f>constant1/(B29+(1/2^32)-constant2) + A29</f>
+        <v>1.0787177127369318E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>-26</v>
+      </c>
+      <c r="B30" s="6">
+        <f t="shared" si="4"/>
+        <v>0.96232300000000004</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98116199999999998</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="6"/>
+        <v>4214058701</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="7"/>
+        <v>-26.000309585690257</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="8"/>
+        <v>3.0958569025685279E-4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>1.0816000000000001E-4</v>
+      </c>
+      <c r="H30">
+        <f>constant1/(B30+(1/2^32)-constant2) + A30</f>
+        <v>-1.2095231603481693E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>-27</v>
+      </c>
+      <c r="B31" s="6">
+        <f t="shared" si="4"/>
+        <v>0.96523099999999995</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98261600000000004</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="6"/>
+        <v>4220303584</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="7"/>
+        <v>-27.000639024132091</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="8"/>
+        <v>6.3902413209149245E-4</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>1.1664000000000001E-4</v>
+      </c>
+      <c r="H31">
+        <f>constant1/(B31+(1/2^32)-constant2) + A31</f>
+        <v>1.7472030234699787E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>-28</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="4"/>
+        <v>0.96792999999999996</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98396499999999998</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>4226097494</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="7"/>
+        <v>-28.000113876464614</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1387646461358258E-4</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>1.2543999999999999E-4</v>
+      </c>
+      <c r="H32">
+        <f>constant1/(B32+(1/2^32)-constant2) + A32</f>
+        <v>-1.2825557220708106E-6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>-29</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97044299999999994</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98522200000000004</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>4231496268</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="7"/>
+        <v>-29.00040214858182</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="8"/>
+        <v>4.0214858181997215E-4</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>1.3456000000000001E-4</v>
+      </c>
+      <c r="H33">
+        <f>constant1/(B33+(1/2^32)-constant2) + A33</f>
+        <v>-1.3347744019043262E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>-30</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97278900000000001</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98639500000000002</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>4236534265</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="7"/>
+        <v>-30.000533619498423</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="8"/>
+        <v>5.3361949842312129E-4</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>1.44E-4</v>
+      </c>
+      <c r="H34">
+        <f>constant1/(B34+(1/2^32)-constant2) + A34</f>
+        <v>-3.9587269920815515E-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>-31</v>
+      </c>
+      <c r="B35" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97498399999999996</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98749200000000004</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>4241245844</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="7"/>
+        <v>-31.000369121399924</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="8"/>
+        <v>3.691213999239551E-4</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>1.5375999999999999E-4</v>
+      </c>
+      <c r="H35">
+        <f>constant1/(B35+(1/2^32)-constant2) + A35</f>
+        <v>2.2796131692714994E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>-32</v>
+      </c>
+      <c r="B36" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97704100000000005</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98852099999999998</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>4245665365</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="7"/>
+        <v>-32.000757361934333</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="8"/>
+        <v>7.5736193433328935E-4</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>1.6384E-4</v>
+      </c>
+      <c r="H36">
+        <f>constant1/(B36+(1/2^32)-constant2) + A36</f>
+        <v>1.0517317220148925E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>-33</v>
+      </c>
+      <c r="B37" s="6">
+        <f t="shared" si="4"/>
+        <v>0.97897299999999998</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" si="5"/>
+        <v>0.98948700000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>4249814304</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="7"/>
+        <v>-33.000489958280781</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="8"/>
+        <v>4.8995828078091108E-4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>1.7424000000000001E-4</v>
+      </c>
+      <c r="H37">
+        <f>constant1/(B37+(1/2^32)-constant2) + A37</f>
+        <v>-2.0361650549460819E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>-34</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.980792</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99039600000000005</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>4253718429</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="7"/>
+        <v>-34.000004998000797</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="8"/>
+        <v>4.9980007972294516E-6</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>1.8495999999999999E-4</v>
+      </c>
+      <c r="H38">
+        <f>constant1/(B38+(1/2^32)-constant2) + A38</f>
+        <v>-1.6480131869656134E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>-35</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98250700000000002</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99125399999999997</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>4257403511</v>
+      </c>
+      <c r="E39" s="9">
+        <f t="shared" si="7"/>
+        <v>-35.000622556081495</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="8"/>
+        <v>6.2255608149541786E-4</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="H39">
+        <f>constant1/(B39+(1/2^32)-constant2) + A39</f>
+        <v>-1.576395353879434E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>-36</v>
+      </c>
+      <c r="B40" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98412699999999997</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99206399999999995</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>4260882435</v>
+      </c>
+      <c r="E40" s="9">
+        <f t="shared" si="7"/>
+        <v>-36.00085203217612</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="8"/>
+        <v>8.5203217611962145E-4</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>2.0735999999999999E-4</v>
+      </c>
+      <c r="H40">
+        <f>constant1/(B40+(1/2^32)-constant2) + A40</f>
+        <v>2.6607876819184639E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>-37</v>
+      </c>
+      <c r="B41" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98565899999999995</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99282999999999999</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>4264172379</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" si="7"/>
+        <v>-37.00080317644499</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="8"/>
+        <v>8.0317644498961727E-4</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>2.1904000000000002E-4</v>
+      </c>
+      <c r="H41">
+        <f>constant1/(B41+(1/2^32)-constant2) + A41</f>
+        <v>-6.8737688046383028E-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>-38</v>
+      </c>
+      <c r="B42" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98711099999999996</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99355599999999999</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="6"/>
+        <v>4267290526</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="7"/>
+        <v>-38.001197303739012</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1973037390120567E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>2.3104000000000001E-4</v>
+      </c>
+      <c r="H42">
+        <f>constant1/(B42+(1/2^32)-constant2) + A42</f>
+        <v>2.7760477328797606E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>-39</v>
+      </c>
+      <c r="B43" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98848800000000003</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99424400000000002</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="6"/>
+        <v>4270245463</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="7"/>
+        <v>-39.000464378535391</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="8"/>
+        <v>4.6437853539060825E-4</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>2.4336E-4</v>
+      </c>
+      <c r="H43">
+        <f>constant1/(B43+(1/2^32)-constant2) + A43</f>
+        <v>2.4096101833492867E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>-40</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" si="4"/>
+        <v>0.98979600000000001</v>
+      </c>
+      <c r="C44" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99489799999999995</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="6"/>
+        <v>4273054372</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="7"/>
+        <v>-40.000319482555859</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="8"/>
+        <v>3.1948255585945162E-4</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>2.5599999999999999E-4</v>
+      </c>
+      <c r="H44">
+        <f>constant1/(B44+(1/2^32)-constant2) + A44</f>
+        <v>8.4462718739075626E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>-41</v>
+      </c>
+      <c r="B45" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99104000000000003</v>
+      </c>
+      <c r="C45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99551999999999996</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="6"/>
+        <v>4275725842</v>
+      </c>
+      <c r="E45" s="9">
+        <f t="shared" si="7"/>
+        <v>-41.000006027000964</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="8"/>
+        <v>6.0270009640817079E-6</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>2.6896E-4</v>
+      </c>
+      <c r="H45">
+        <f>constant1/(B45+(1/2^32)-constant2) + A45</f>
+        <v>-2.4088680747524904E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>-42</v>
+      </c>
+      <c r="B46" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99222500000000002</v>
+      </c>
+      <c r="C46" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99611300000000003</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="6"/>
+        <v>4278272757</v>
+      </c>
+      <c r="E46" s="9">
+        <f t="shared" si="7"/>
+        <v>-42.000747067297795</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="8"/>
+        <v>7.4706729779450143E-4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="9"/>
+        <v>2.8224000000000001E-4</v>
+      </c>
+      <c r="H46">
+        <f>constant1/(B46+(1/2^32)-constant2) + A46</f>
+        <v>-3.7640938185035111E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>-43</v>
+      </c>
+      <c r="B47" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99335499999999999</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99667799999999995</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="6"/>
+        <v>4280699414</v>
+      </c>
+      <c r="E47" s="9">
+        <f t="shared" si="7"/>
+        <v>-43.00076485461441</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="8"/>
+        <v>7.6485461440967129E-4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>2.9584000000000001E-4</v>
+      </c>
+      <c r="H47">
+        <f>constant1/(B47+(1/2^32)-constant2) + A47</f>
+        <v>-4.1275709632060398E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>-44</v>
+      </c>
+      <c r="B48" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99443400000000004</v>
+      </c>
+      <c r="C48" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99721700000000002</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="6"/>
+        <v>4283014401</v>
+      </c>
+      <c r="E48" s="9">
+        <f t="shared" si="7"/>
+        <v>-44.00017894873011</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="8"/>
+        <v>1.78948730109596E-4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>3.0976000000000002E-4</v>
+      </c>
+      <c r="H48">
+        <f>constant1/(B48+(1/2^32)-constant2) + A48</f>
+        <v>-1.054228762029652E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>-45</v>
+      </c>
+      <c r="B49" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99546500000000004</v>
+      </c>
+      <c r="C49" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99773299999999998</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="6"/>
+        <v>4285230604</v>
+      </c>
+      <c r="E49" s="9">
+        <f t="shared" si="7"/>
+        <v>-45.00146196251378</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="8"/>
+        <v>1.4619625137797243E-3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="9"/>
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="H49">
+        <f>constant1/(B49+(1/2^32)-constant2) + A49</f>
+        <v>1.7222168768427082E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>-46</v>
+      </c>
+      <c r="B50" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99645099999999998</v>
+      </c>
+      <c r="C50" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99822599999999995</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="6"/>
+        <v>4287348023</v>
+      </c>
+      <c r="E50" s="9">
+        <f t="shared" si="7"/>
+        <v>-46.001629699756556</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="8"/>
+        <v>1.6296997565561355E-3</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="9"/>
+        <v>3.3856000000000001E-4</v>
+      </c>
+      <c r="H50">
+        <f>constant1/(B50+(1/2^32)-constant2) + A50</f>
+        <v>2.8199314053978242E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>-47</v>
+      </c>
+      <c r="B51" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99739500000000003</v>
+      </c>
+      <c r="C51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99869799999999997</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="6"/>
+        <v>4289375248</v>
+      </c>
+      <c r="E51" s="9">
+        <f t="shared" si="7"/>
+        <v>-47.001757254721326</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="8"/>
+        <v>1.7572547213262624E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="9"/>
+        <v>3.5344E-4</v>
+      </c>
+      <c r="H51">
+        <f>constant1/(B51+(1/2^32)-constant2) + A51</f>
+        <v>3.5031063388402117E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>-48</v>
+      </c>
+      <c r="B52" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99829900000000005</v>
+      </c>
+      <c r="C52" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99914999999999998</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="6"/>
+        <v>4291316573</v>
+      </c>
+      <c r="E52" s="9">
+        <f t="shared" si="7"/>
+        <v>-48.001136042901493</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" si="8"/>
+        <v>1.1360429014928286E-3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="9"/>
+        <v>3.6863999999999999E-4</v>
+      </c>
+      <c r="H52">
+        <f>constant1/(B52+(1/2^32)-constant2) + A52</f>
+        <v>-3.3136686008106153E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>-49</v>
+      </c>
+      <c r="B53" s="6">
+        <f t="shared" si="4"/>
+        <v>0.99916700000000003</v>
+      </c>
+      <c r="C53" s="7">
+        <f t="shared" si="5"/>
+        <v>0.99958400000000003</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="6"/>
+        <v>4293180589</v>
+      </c>
+      <c r="E53" s="9">
+        <f t="shared" si="7"/>
+        <v>-49.001543891663466</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="8"/>
+        <v>1.5438916634664679E-3</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="9"/>
+        <v>3.8415999999999998E-4</v>
+      </c>
+      <c r="H53">
+        <f>constant1/(B53+(1/2^32)-constant2) + A53</f>
+        <v>1.4679927637928358E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>-50</v>
+      </c>
+      <c r="B54" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="6"/>
+        <v>4294967295</v>
+      </c>
+      <c r="E54" s="9">
+        <f t="shared" si="7"/>
+        <v>-50.000399353194823</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="8"/>
+        <v>3.9935319482253817E-4</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="9"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H54">
+        <f>constant1/(B54+(1/2^32)-constant2) + A54</f>
+        <v>3.2135238711816783E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I58">
+        <f ca="1">RANDBETWEEN(2,13)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I59">
+        <f ca="1">RANDBETWEEN(20,50)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I62" s="2">
+        <f ca="1">-(2*I58*I59)/(I58-I59)</f>
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I63" s="3">
+        <f ca="1">(2*I58*I59)/(I59-I58)</f>
+        <v>46.153846153846153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I65" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I66">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/scratch_files/perspective_calculations.xlsx
+++ b/scratch_files/perspective_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bettybrown/Documents/Runestone/learnwebgl2/scratch_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D311F9ED-5A65-DF46-ADF0-FDE87E6BE90E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E5F8B898-4528-D244-9A08-F14DE82AD039}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30160" windowHeight="15100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3286,7 +3286,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.1408696209969094E-10</c:v>
+                  <c:v>0.96078433865469903</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-2.9354361252842409E-7</c:v>
@@ -6206,25 +6206,25 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I55">
         <f ca="1">RANDBETWEEN(2,13)</f>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I56">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I59" s="2">
         <f ca="1">-(2*I55*I56)/(I55-I56)</f>
-        <v>22.90909090909091</v>
+        <v>4.2051282051282053</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I60" s="3">
         <f ca="1">(2*I55*I56)/(I56-I55)</f>
-        <v>22.90909090909091</v>
+        <v>4.2051282051282053</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -6254,8 +6254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6851927-19FC-B448-8F8E-C40A5DCBA296}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6362,8 +6362,8 @@
         <v>1.6E-7</v>
       </c>
       <c r="H5">
-        <f>constant1/(B5+(1/2^32)-constant2) + A5</f>
-        <v>1.1408696209969094E-10</v>
+        <f>constant1/(C5+(1/2^32)-constant2) + A5</f>
+        <v>0.96078433865469903</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -7986,25 +7986,25 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I58">
         <f ca="1">RANDBETWEEN(2,13)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I59">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I62" s="2">
         <f ca="1">-(2*I58*I59)/(I58-I59)</f>
-        <v>46.153846153846153</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I63" s="3">
         <f ca="1">(2*I58*I59)/(I59-I58)</f>
-        <v>46.153846153846153</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
